--- a/test_files_v1.3/d_fail_url_file_missing-v1.3.1.xlsx
+++ b/test_files_v1.3/d_fail_url_file_missing-v1.3.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burkesv/Documents/GitHub/CancerDataServices-CatchERR/test_files_v1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64DD5E2-8DF1-6C4E-ABA3-6DCE1F1D5BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3E22AE-E707-B445-B07C-766C4340F368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-720" yWindow="-19720" windowWidth="30240" windowHeight="17800" activeTab="1" xr2:uid="{9B1798FB-E631-DB49-8D33-11EDA4C72D26}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10584" uniqueCount="9999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10584" uniqueCount="9997">
   <si>
     <t>CDS SUBMISSION METADATA TEMPLATE</t>
   </si>
@@ -29896,9 +29896,6 @@
     <t>tester</t>
   </si>
   <si>
-    <t>['phs765432']</t>
-  </si>
-  <si>
     <t>Me</t>
   </si>
   <si>
@@ -29941,9 +29938,6 @@
     <t>Radiology</t>
   </si>
   <si>
-    <t>['phs654321']</t>
-  </si>
-  <si>
     <t>i@i.com</t>
   </si>
   <si>
@@ -29971,9 +29965,6 @@
     <t>WES</t>
   </si>
   <si>
-    <t>['phs876543']</t>
-  </si>
-  <si>
     <t>Myself</t>
   </si>
   <si>
@@ -30035,6 +30026,9 @@
   </si>
   <si>
     <t>s3://bucket</t>
+  </si>
+  <si>
+    <t>phs765432</t>
   </si>
 </sst>
 </file>
@@ -30988,8 +30982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA8C985-DF33-3E49-A37A-52651F205350}">
   <dimension ref="A1:CR7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="AY10" sqref="AY10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31402,13 +31396,13 @@
         <v>319</v>
       </c>
       <c r="J2" t="s">
+        <v>9996</v>
+      </c>
+      <c r="K2" t="s">
         <v>9952</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="26" t="s">
         <v>9953</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>9954</v>
       </c>
       <c r="AC2">
         <v>1</v>
@@ -31420,25 +31414,25 @@
         <v>9893</v>
       </c>
       <c r="AK2" t="s">
-        <v>9955</v>
+        <v>9954</v>
       </c>
       <c r="AN2" t="s">
         <v>4730</v>
       </c>
       <c r="AU2" t="s">
-        <v>9993</v>
+        <v>9990</v>
       </c>
       <c r="AV2" t="s">
-        <v>9956</v>
+        <v>9955</v>
       </c>
       <c r="AW2">
         <v>54664</v>
       </c>
       <c r="AX2" t="s">
-        <v>9957</v>
+        <v>9956</v>
       </c>
       <c r="AY2" t="s">
-        <v>9996</v>
+        <v>9993</v>
       </c>
       <c r="BD2">
         <v>1</v>
@@ -31447,13 +31441,13 @@
         <v>383</v>
       </c>
       <c r="BH2" t="s">
-        <v>9958</v>
+        <v>9957</v>
       </c>
       <c r="BI2" t="s">
         <v>466</v>
       </c>
       <c r="BL2" t="s">
-        <v>9959</v>
+        <v>9958</v>
       </c>
       <c r="BN2">
         <v>654</v>
@@ -31491,13 +31485,13 @@
         <v>319</v>
       </c>
       <c r="J3" t="s">
+        <v>9996</v>
+      </c>
+      <c r="K3" t="s">
         <v>9952</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="26" t="s">
         <v>9953</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>9954</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -31509,25 +31503,25 @@
         <v>9893</v>
       </c>
       <c r="AK3" t="s">
-        <v>9960</v>
+        <v>9959</v>
       </c>
       <c r="AN3" t="s">
         <v>4727</v>
       </c>
       <c r="AU3" t="s">
-        <v>9994</v>
+        <v>9991</v>
       </c>
       <c r="AV3" t="s">
-        <v>9956</v>
+        <v>9955</v>
       </c>
       <c r="AW3">
         <v>13489</v>
       </c>
       <c r="AX3" t="s">
-        <v>9961</v>
+        <v>9960</v>
       </c>
       <c r="AY3" t="s">
-        <v>9997</v>
+        <v>9994</v>
       </c>
       <c r="BD3">
         <v>2</v>
@@ -31536,13 +31530,13 @@
         <v>383</v>
       </c>
       <c r="BH3" t="s">
-        <v>9958</v>
+        <v>9957</v>
       </c>
       <c r="BI3" t="s">
         <v>466</v>
       </c>
       <c r="BL3" t="s">
-        <v>9959</v>
+        <v>9958</v>
       </c>
       <c r="BN3">
         <v>54645</v>
@@ -31580,13 +31574,13 @@
         <v>319</v>
       </c>
       <c r="J4" t="s">
+        <v>9996</v>
+      </c>
+      <c r="K4" t="s">
         <v>9952</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" s="26" t="s">
         <v>9953</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>9954</v>
       </c>
       <c r="AC4">
         <v>2</v>
@@ -31598,25 +31592,25 @@
         <v>9897</v>
       </c>
       <c r="AK4" t="s">
-        <v>9962</v>
+        <v>9961</v>
       </c>
       <c r="AN4" t="s">
         <v>4730</v>
       </c>
       <c r="AU4" t="s">
-        <v>9995</v>
+        <v>9992</v>
       </c>
       <c r="AV4" t="s">
-        <v>9956</v>
+        <v>9955</v>
       </c>
       <c r="AW4">
         <v>465498</v>
       </c>
       <c r="AX4" t="s">
-        <v>9963</v>
+        <v>9962</v>
       </c>
       <c r="AY4" t="s">
-        <v>9998</v>
+        <v>9995</v>
       </c>
       <c r="BD4">
         <v>3</v>
@@ -31625,13 +31619,13 @@
         <v>383</v>
       </c>
       <c r="BH4" t="s">
-        <v>9958</v>
+        <v>9957</v>
       </c>
       <c r="BI4" t="s">
         <v>466</v>
       </c>
       <c r="BL4" t="s">
-        <v>9959</v>
+        <v>9958</v>
       </c>
       <c r="BN4">
         <v>65498</v>
@@ -31648,13 +31642,13 @@
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>9963</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9963</v>
+      </c>
+      <c r="D5" t="s">
         <v>9964</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9964</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9965</v>
       </c>
       <c r="F5">
         <v>42</v>
@@ -31666,19 +31660,19 @@
         <v>9947</v>
       </c>
       <c r="I5" t="s">
-        <v>9966</v>
+        <v>9965</v>
       </c>
       <c r="J5" t="s">
-        <v>9967</v>
+        <v>9996</v>
       </c>
       <c r="K5" t="s">
         <v>9808</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>9968</v>
+        <v>9966</v>
       </c>
       <c r="AC5" t="s">
-        <v>9969</v>
+        <v>9967</v>
       </c>
       <c r="AD5" t="s">
         <v>9891</v>
@@ -31687,25 +31681,25 @@
         <v>9894</v>
       </c>
       <c r="AK5" t="s">
-        <v>9970</v>
+        <v>9968</v>
       </c>
       <c r="AN5" t="s">
         <v>4731</v>
       </c>
       <c r="AU5" t="s">
-        <v>9971</v>
+        <v>9969</v>
       </c>
       <c r="AV5" t="s">
-        <v>9972</v>
+        <v>9970</v>
       </c>
       <c r="AW5">
         <v>6548943487</v>
       </c>
       <c r="AX5" t="s">
-        <v>9973</v>
+        <v>9971</v>
       </c>
       <c r="AY5" t="s">
-        <v>9990</v>
+        <v>9987</v>
       </c>
       <c r="BD5">
         <v>5</v>
@@ -31737,13 +31731,13 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>9974</v>
+        <v>9972</v>
       </c>
       <c r="C6" t="s">
-        <v>9974</v>
+        <v>9972</v>
       </c>
       <c r="D6" t="s">
-        <v>9975</v>
+        <v>9973</v>
       </c>
       <c r="F6">
         <v>76</v>
@@ -31755,19 +31749,19 @@
         <v>9945</v>
       </c>
       <c r="I6" t="s">
+        <v>9974</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9996</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9975</v>
+      </c>
+      <c r="L6" s="26" t="s">
         <v>9976</v>
       </c>
-      <c r="J6" t="s">
+      <c r="AC6" t="s">
         <v>9977</v>
-      </c>
-      <c r="K6" t="s">
-        <v>9978</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>9979</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>9980</v>
       </c>
       <c r="AD6" t="s">
         <v>311</v>
@@ -31782,45 +31776,45 @@
         <v>4730</v>
       </c>
       <c r="AU6" t="s">
-        <v>9981</v>
+        <v>9978</v>
       </c>
       <c r="AV6" t="s">
-        <v>9982</v>
+        <v>9979</v>
       </c>
       <c r="AW6">
         <v>6541</v>
       </c>
       <c r="AX6" t="s">
-        <v>9983</v>
+        <v>9980</v>
       </c>
       <c r="AY6" t="s">
-        <v>9991</v>
+        <v>9988</v>
       </c>
       <c r="BD6" t="s">
-        <v>9984</v>
+        <v>9981</v>
       </c>
       <c r="BF6" t="s">
         <v>383</v>
       </c>
       <c r="BH6" t="s">
-        <v>9958</v>
+        <v>9957</v>
       </c>
       <c r="BI6" t="s">
         <v>466</v>
       </c>
       <c r="BL6" t="s">
-        <v>9985</v>
+        <v>9982</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>9963</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9963</v>
+      </c>
+      <c r="D7" t="s">
         <v>9964</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9964</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9965</v>
       </c>
       <c r="F7">
         <v>42</v>
@@ -31832,19 +31826,19 @@
         <v>9947</v>
       </c>
       <c r="I7" t="s">
-        <v>9966</v>
+        <v>9965</v>
       </c>
       <c r="J7" t="s">
-        <v>9967</v>
+        <v>9996</v>
       </c>
       <c r="K7" t="s">
         <v>9808</v>
       </c>
       <c r="L7" s="26" t="s">
-        <v>9968</v>
+        <v>9966</v>
       </c>
       <c r="AC7" t="s">
-        <v>9986</v>
+        <v>9983</v>
       </c>
       <c r="AD7" t="s">
         <v>9892</v>
@@ -31853,25 +31847,25 @@
         <v>9898</v>
       </c>
       <c r="AK7" t="s">
-        <v>9987</v>
+        <v>9984</v>
       </c>
       <c r="AN7" t="s">
         <v>4769</v>
       </c>
       <c r="AU7" t="s">
-        <v>9988</v>
+        <v>9985</v>
       </c>
       <c r="AV7" t="s">
-        <v>9972</v>
+        <v>9970</v>
       </c>
       <c r="AW7">
         <v>5486874487</v>
       </c>
       <c r="AX7" t="s">
+        <v>9986</v>
+      </c>
+      <c r="AY7" t="s">
         <v>9989</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>9992</v>
       </c>
       <c r="BD7">
         <v>4</v>
@@ -82851,12 +82845,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -83051,15 +83042,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F83864-F6D6-4E5E-8AAD-E1E32B706500}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6AF062-5CEC-49D4-82C2-DF1EBA98BD2B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e90b173b-37e9-4a24-8d1d-2ce602dda436"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c550909f-45ce-45a3-96f7-2c03a0037d02"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -83084,18 +83087,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6AF062-5CEC-49D4-82C2-DF1EBA98BD2B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F83864-F6D6-4E5E-8AAD-E1E32B706500}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="e90b173b-37e9-4a24-8d1d-2ce602dda436"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c550909f-45ce-45a3-96f7-2c03a0037d02"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>